--- a/Nucleo_DCO_Output_Board/Nucleo_DCO_出力部_ブロック図.xlsx
+++ b/Nucleo_DCO_Output_Board/Nucleo_DCO_出力部_ブロック図.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gizmo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gizmo\Documents\Develop\Nucleo_DCO\Nucleo_DCO_Output_Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>アナログ系</t>
     <rPh sb="4" eb="5">
@@ -50,10 +50,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2018.10.04</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>INPUT</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -68,6 +64,28 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DC9VIN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nucleo VIN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018.10.17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電圧監視</t>
+    <rPh sb="0" eb="2">
+      <t>デンアツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -154,13 +172,91 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>152867</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1188</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rounded Rectangle 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1860040" y="3033346"/>
+          <a:ext cx="3723075" cy="1348154"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>PSU Board</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152867</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1187</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -170,8 +266,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1867367" y="678521"/>
-          <a:ext cx="3741800" cy="2538812"/>
+          <a:off x="1886417" y="686987"/>
+          <a:ext cx="3790483" cy="2227663"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -352,7 +448,7 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -361,7 +457,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>16565</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>9268</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -369,9 +465,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="338667" y="1354667"/>
-          <a:ext cx="1032565" cy="9268"/>
+        <a:xfrm>
+          <a:off x="512379" y="1366345"/>
+          <a:ext cx="528945" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -450,25 +546,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>49396</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>157436</xdr:rowOff>
+      <xdr:colOff>65484</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>66329</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>157436</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2462</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="77" name="Straight Arrow Connector 76"/>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="95" idx="3"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5489229" y="1342769"/>
-          <a:ext cx="863600" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="5607843" y="1381125"/>
+          <a:ext cx="797720" cy="2462"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -496,15 +594,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>16566</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>16565</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>170138</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>2931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -514,8 +612,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="693899" y="3386667"/>
-          <a:ext cx="338666" cy="169333"/>
+          <a:off x="511724" y="4614345"/>
+          <a:ext cx="342242" cy="167862"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -550,16 +648,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>152868</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>169333</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>168519</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>168518</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>169333</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>168518</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -568,8 +666,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2036701" y="2370666"/>
-          <a:ext cx="3403132" cy="508000"/>
+          <a:off x="2718288" y="3033345"/>
+          <a:ext cx="2022231" cy="674077"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -608,16 +706,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>84666</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>168519</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>84666</xdr:rowOff>
+      <xdr:colOff>22982</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -627,9 +725,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5439833" y="2624666"/>
-          <a:ext cx="846668" cy="0"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4740519" y="3370384"/>
+          <a:ext cx="1539655" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -657,16 +755,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>152868</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>160735</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:rowOff>159921</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>169333</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>172640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -675,8 +773,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2036701" y="1854068"/>
-          <a:ext cx="3403132" cy="516598"/>
+          <a:off x="3298031" y="1886327"/>
+          <a:ext cx="1035844" cy="703282"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -715,16 +813,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>170138</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>16565</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>10583</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>16565</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>10583</xdr:rowOff>
+      <xdr:colOff>170138</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -733,8 +831,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="693898" y="3566583"/>
-          <a:ext cx="338667" cy="169333"/>
+          <a:off x="511724" y="4782207"/>
+          <a:ext cx="341586" cy="170793"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -891,15 +989,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>32930</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>148166</xdr:rowOff>
+      <xdr:colOff>49018</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>4923</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>49396</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>143242</xdr:rowOff>
+      <xdr:colOff>65484</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -908,8 +1006,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4626097" y="994833"/>
-          <a:ext cx="863132" cy="672409"/>
+          <a:off x="4728174" y="1040767"/>
+          <a:ext cx="879669" cy="685639"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -943,6 +1041,260 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>168518</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="88" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3729404" y="2359271"/>
+          <a:ext cx="0" cy="674074"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>168518</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>168519</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="88" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="512379" y="3755173"/>
+          <a:ext cx="2237743" cy="2275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>172639</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>172639</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>172640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Pentagon 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2089545" y="1899047"/>
+          <a:ext cx="863203" cy="690562"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DIV</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>172639</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="517923" y="2244328"/>
+          <a:ext cx="1571622" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>87212</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1190</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Elbow Connector 5"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="4" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2678012" y="2572940"/>
+          <a:ext cx="1112939" cy="170260"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1214,10 +1566,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:AI22"/>
+  <dimension ref="B2:AI30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:AL23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:AM32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1232,36 +1584,51 @@
     </row>
     <row r="3" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:35" x14ac:dyDescent="0.15">
-      <c r="C9" s="1" t="s">
-        <v>4</v>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="AI9" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="7:35" x14ac:dyDescent="0.15">
-      <c r="AI17" s="1" t="s">
-        <v>5</v>
+    <row r="14" spans="2:35" x14ac:dyDescent="0.15">
+      <c r="D14" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="21" spans="7:35" x14ac:dyDescent="0.15">
-      <c r="G21" t="s">
+    <row r="19" spans="4:35" x14ac:dyDescent="0.15">
+      <c r="W19" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="4:35" x14ac:dyDescent="0.15">
+      <c r="AI24" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="4:35" x14ac:dyDescent="0.15">
+      <c r="D25" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="4:35" x14ac:dyDescent="0.15">
+      <c r="F29" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="7:35" x14ac:dyDescent="0.15">
-      <c r="G22" t="s">
-        <v>6</v>
+    <row r="30" spans="4:35" x14ac:dyDescent="0.15">
+      <c r="F30" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="89" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;D&amp;T</oddFooter>
   </headerFooter>

--- a/Nucleo_DCO_Output_Board/Nucleo_DCO_出力部_ブロック図.xlsx
+++ b/Nucleo_DCO_Output_Board/Nucleo_DCO_出力部_ブロック図.xlsx
@@ -68,15 +68,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DC9VIN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Nucleo VIN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2018.10.17</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -87,6 +79,14 @@
     <rPh sb="2" eb="4">
       <t>カンシ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10V AC-DC Adapter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018.10.20</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1569,7 +1569,7 @@
   <dimension ref="B2:AI30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:AM32"/>
+      <selection sqref="A1:AQ31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="3" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:35" x14ac:dyDescent="0.15">
@@ -1597,7 +1597,7 @@
     </row>
     <row r="14" spans="2:35" x14ac:dyDescent="0.15">
       <c r="D14" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="4:35" x14ac:dyDescent="0.15">
@@ -1607,12 +1607,12 @@
     </row>
     <row r="24" spans="4:35" x14ac:dyDescent="0.15">
       <c r="AI24" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="4:35" x14ac:dyDescent="0.15">
       <c r="D25" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="4:35" x14ac:dyDescent="0.15">

--- a/Nucleo_DCO_Output_Board/Nucleo_DCO_出力部_ブロック図.xlsx
+++ b/Nucleo_DCO_Output_Board/Nucleo_DCO_出力部_ブロック図.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>アナログ系</t>
     <rPh sb="4" eb="5">
@@ -86,7 +86,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2018.10.20</t>
+    <t>Bypass</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018.10.25</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -172,13 +176,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>152867</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -251,13 +255,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>152867</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1187</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -266,8 +270,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1886417" y="686987"/>
-          <a:ext cx="3790483" cy="2227663"/>
+          <a:off x="1886417" y="1371601"/>
+          <a:ext cx="3790483" cy="2400300"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -328,13 +332,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>9267</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>9267</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -393,13 +397,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>152868</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>8595</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>3671</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -450,13 +454,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>16565</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -497,13 +501,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>6133</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>152868</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>9267</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -547,13 +551,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>65484</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>2462</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -596,13 +600,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>170138</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>2931</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -650,13 +654,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>168519</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>168518</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>168518</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -708,13 +712,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>168519</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>22982</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -757,13 +761,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>159921</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>172640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -815,13 +819,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>170138</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>170138</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -869,13 +873,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>16465</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>164409</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -933,13 +937,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>16465</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>4924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>32930</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -990,13 +994,13 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>49018</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>4923</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>65484</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1047,13 +1051,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>168518</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1096,13 +1100,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>168518</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>168519</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1145,13 +1149,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>172639</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>172639</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>172640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1203,13 +1207,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>172639</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1252,13 +1256,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>87212</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>1190</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1289,6 +1293,55 @@
         </a:fillRef>
         <a:effectRef idx="2">
           <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>95718</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Elbow Connector 2"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="93" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="4696059" y="219309"/>
+          <a:ext cx="171450" cy="3161832"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1566,10 +1619,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:AI30"/>
+  <dimension ref="B2:AI31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:AQ31"/>
+      <selection sqref="A1:AR33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1584,44 +1637,49 @@
     </row>
     <row r="3" spans="2:35" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:35" x14ac:dyDescent="0.15">
+      <c r="AI7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:35" x14ac:dyDescent="0.15">
-      <c r="D9" s="1" t="s">
+    <row r="10" spans="2:35" x14ac:dyDescent="0.15">
+      <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AI9" s="1" t="s">
+      <c r="AI10" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:35" x14ac:dyDescent="0.15">
-      <c r="D14" s="1" t="s">
+    <row r="15" spans="2:35" x14ac:dyDescent="0.15">
+      <c r="D15" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="4:35" x14ac:dyDescent="0.15">
-      <c r="W19" s="1" t="s">
+    <row r="20" spans="4:35" x14ac:dyDescent="0.15">
+      <c r="W20" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="4:35" x14ac:dyDescent="0.15">
-      <c r="AI24" s="1" t="s">
+    <row r="25" spans="4:35" x14ac:dyDescent="0.15">
+      <c r="AI25" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="4:35" x14ac:dyDescent="0.15">
-      <c r="D25" s="1" t="s">
+    <row r="26" spans="4:35" x14ac:dyDescent="0.15">
+      <c r="D26" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="4:35" x14ac:dyDescent="0.15">
-      <c r="F29" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="30" spans="4:35" x14ac:dyDescent="0.15">
       <c r="F30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="4:35" x14ac:dyDescent="0.15">
+      <c r="F31" t="s">
         <v>5</v>
       </c>
     </row>
